--- a/data/panelapp/uk/Familial cicatricial alopecia.xlsx
+++ b/data/panelapp/uk/Familial cicatricial alopecia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254291</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254305</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254309</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254313</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254316</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254319</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254322</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254325</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254329</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254332</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254335</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254338</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254341</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254344</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254348</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254351</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254354</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254357</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254360</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254363</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254366</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254369</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254372</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Familial cicatricial alopecia</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254375</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1077,6 +1202,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Familial cicatricial alopecia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:40.254379</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Familial cicatricial alopecia.xlsx
+++ b/data/panelapp/uk/Familial cicatricial alopecia.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254291</t>
+          <t>2021-10-05 14:20:11.659131</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254305</t>
+          <t>2021-10-05 14:20:11.659140</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254309</t>
+          <t>2021-10-05 14:20:11.659143</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254313</t>
+          <t>2021-10-05 14:20:11.659146</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254316</t>
+          <t>2021-10-05 14:20:11.659151</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254319</t>
+          <t>2021-10-05 14:20:11.659153</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254322</t>
+          <t>2021-10-05 14:20:11.659156</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254325</t>
+          <t>2021-10-05 14:20:11.659159</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254329</t>
+          <t>2021-10-05 14:20:11.659162</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254332</t>
+          <t>2021-10-05 14:20:11.659164</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254335</t>
+          <t>2021-10-05 14:20:11.659167</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254338</t>
+          <t>2021-10-05 14:20:11.659170</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254341</t>
+          <t>2021-10-05 14:20:11.659172</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254344</t>
+          <t>2021-10-05 14:20:11.659175</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254348</t>
+          <t>2021-10-05 14:20:11.659178</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254351</t>
+          <t>2021-10-05 14:20:11.659180</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254354</t>
+          <t>2021-10-05 14:20:11.659184</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254357</t>
+          <t>2021-10-05 14:20:11.659187</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254360</t>
+          <t>2021-10-05 14:20:11.659189</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254363</t>
+          <t>2021-10-05 14:20:11.659192</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254366</t>
+          <t>2021-10-05 14:20:11.659195</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254369</t>
+          <t>2021-10-05 14:20:11.659197</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254372</t>
+          <t>2021-10-05 14:20:11.659200</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254375</t>
+          <t>2021-10-05 14:20:11.659203</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,91 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:40.254379</t>
+          <t>2021-10-05 14:20:11.659206</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Familial cicatricial alopecia</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>305</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-08-31T11:16:38.259932Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:20:11.655348</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/305/?format=json</t>
         </is>
       </c>
     </row>
